--- a/기획/CSV/CountryInfo.xlsx
+++ b/기획/CSV/CountryInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C60BFD8-652D-4A59-9467-AB3358C39E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286CAABF-1242-4E16-B55E-9FADE44B4219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryInfo" sheetId="1" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1372,7 +1372,9 @@
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>41570000</v>
+      </c>
       <c r="D17">
         <v>3</v>
       </c>
@@ -1383,5 +1385,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/기획/CSV/CountryInfo.xlsx
+++ b/기획/CSV/CountryInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286CAABF-1242-4E16-B55E-9FADE44B4219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21C349-758B-4CA7-9250-CC962ACB9B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>4000000</v>
+        <v>40000000</v>
       </c>
       <c r="D9">
         <v>-2</v>
@@ -1254,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>510000</v>
+        <v>51000000</v>
       </c>
       <c r="D10">
         <v>3</v>
